--- a/Base/Teams/Bengals/2021 Team Data.xlsx
+++ b/Base/Teams/Bengals/2021 Team Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Bengals/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B2E822D97FBF613A7E408120C8878267FD8AF2BC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6C9DD99-586F-47D7-A3D3-D9AD776B2CFC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -35,16 +41,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4</t>
-  </si>
-  <si>
-    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19</t>
-  </si>
-  <si>
-    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3</t>
-  </si>
-  <si>
-    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11</t>
+    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10</t>
+  </si>
+  <si>
+    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10</t>
+  </si>
+  <si>
+    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2</t>
+  </si>
+  <si>
+    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +167,19 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 55 63 69 56 62 67 62 62 66 64 67 64 39 62 68 62 66 59 67</t>
-  </si>
-  <si>
-    <t>21 10 22 27 16 20 23 28 18 21 24 35 24 11 12 25 15 24 24 25</t>
-  </si>
-  <si>
-    <t>11 27 18 23 30 19 24 44 22 28 26 18 14 21 17 22 25 32 12</t>
-  </si>
-  <si>
-    <t>59 47 37 43 42 43 61 36 39 48 37 54 49 53 46 56 40 46 41 38 42 25 58 51 54 39 60 58 59 47 45 38 55 37 44 41 47 58 41 45 53</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 12 0 0 14 0 0 0 0 0 0 0 1 0 0 8 0 11 13 14 0 16 21 0 0 0 0 16 0 -1 5 12 11 0 3 0</t>
-  </si>
-  <si>
-    <t>8 15 0 12 15 3 0 0 0 0 15 0 16 -7 0 0 12 0 -1 0 2 0 0 0 15 11 0 0 13 7 0 0 0 0 0 0 14 16 0 0 0 15 0 0 17 0 0</t>
+    <t>70 55 63 69 56 62 67 62 62 66 64 67 64 39 62 68 62 66 59 67 68 68 65</t>
+  </si>
+  <si>
+    <t>21 10 22 27 16 20 23 28 18 21 24 35 24 11 12 25 15 24 24 25 48 24 27</t>
+  </si>
+  <si>
+    <t>11 27 18 23 30 19 24 44 22 28 26 18 14 21 17 22 25 32 12 17 10 25</t>
+  </si>
+  <si>
+    <t>59 47 37 43 42 43 61 36 39 48 37 54 49 53 46 56 40 46 41 38 42 25 58 51 54 39 60 58 59 47 45 38 55 37 44 41 47 58 41 45 53 50 46 46 38</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 12 0 0 14 0 0 0 0 0 0 0 1 0 0 8 0 11 13 14 0 16 21 0 0 0 0 16 0 -1 5 12 11 0 3 0 15 3 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -204,13 +207,16 @@
   </si>
   <si>
     <t>Offside</t>
+  </si>
+  <si>
+    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +279,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -319,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +365,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,6 +417,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,14 +610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,14 +653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -660,7 +710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -668,19 +718,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -695,54 +745,54 @@
         <v>25</v>
       </c>
       <c r="L2">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="M2">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="N2">
         <v>13</v>
       </c>
       <c r="O2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2">
         <v>8</v>
       </c>
       <c r="Q2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J3">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +804,7 @@
         <v>118</v>
       </c>
       <c r="N3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -772,14 +822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -808,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -840,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -878,14 +928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -943,81 +993,81 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="M2">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="N2">
         <v>17</v>
       </c>
       <c r="O2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q2">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1079,7 @@
         <v>160</v>
       </c>
       <c r="N3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1047,14 +1097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1153,14 +1203,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1210,30 +1262,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
+        <v>37</v>
+      </c>
+      <c r="G2">
         <v>35</v>
       </c>
-      <c r="G2">
-        <v>34</v>
-      </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1245,10 +1297,10 @@
         <v>44</v>
       </c>
       <c r="L2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2">
         <v>18</v>
@@ -1263,12 +1315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1277,7 +1329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1302,10 +1354,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1319,45 +1371,45 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
       <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1371,7 +1423,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1380,14 +1432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,51 +1450,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/Base/Teams/Bengals/2021 Team Data.xlsx
+++ b/Base/Teams/Bengals/2021 Team Data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Bengals/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B2E822D97FBF613A7E408120C8878267FD8AF2BC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6C9DD99-586F-47D7-A3D3-D9AD776B2CFC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -41,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10</t>
-  </si>
-  <si>
-    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10</t>
-  </si>
-  <si>
-    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2</t>
-  </si>
-  <si>
-    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2</t>
+    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3</t>
+  </si>
+  <si>
+    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23</t>
+  </si>
+  <si>
+    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2</t>
+  </si>
+  <si>
+    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,19 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 55 63 69 56 62 67 62 62 66 64 67 64 39 62 68 62 66 59 67 68 68 65</t>
-  </si>
-  <si>
-    <t>21 10 22 27 16 20 23 28 18 21 24 35 24 11 12 25 15 24 24 25 48 24 27</t>
-  </si>
-  <si>
-    <t>11 27 18 23 30 19 24 44 22 28 26 18 14 21 17 22 25 32 12 17 10 25</t>
-  </si>
-  <si>
-    <t>59 47 37 43 42 43 61 36 39 48 37 54 49 53 46 56 40 46 41 38 42 25 58 51 54 39 60 58 59 47 45 38 55 37 44 41 47 58 41 45 53 50 46 46 38</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 12 0 0 14 0 0 0 0 0 0 0 1 0 0 8 0 11 13 14 0 16 21 0 0 0 0 16 0 -1 5 12 11 0 3 0 15 3 0 0</t>
+    <t>70 55 63 69 56 62 67 62 62 66 64 67 64 39 62 68 62 66 59 67 68 68 65 55 63 67</t>
+  </si>
+  <si>
+    <t>21 10 22 27 16 20 23 28 18 21 24 35 24 11 12 25 15 24 24 25 48 24 27 16 24 23</t>
+  </si>
+  <si>
+    <t>11 27 18 23 30 19 24 44 22 28 26 18 14 21 17 22 25 32 12 17 10 25 18 18</t>
+  </si>
+  <si>
+    <t>59 47 37 43 42 43 61 36 39 48 37 54 49 53 46 56 40 46 41 38 42 25 58 51 54 39 60 58 59 47 45 38 55 37 44 41 47 58 41 45 53 50 46 46 38 46 36 41 50</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 12 0 0 14 0 0 0 0 0 0 0 1 0 0 8 0 11 13 14 0 16 21 0 0 0 0 16 0 -1 5 12 11 0 3 0 15 3 0 0 0 4 0 0</t>
+  </si>
+  <si>
+    <t>0 0 12 8 0 1 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -207,16 +204,13 @@
   </si>
   <si>
     <t>Offside</t>
-  </si>
-  <si>
-    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,14 +273,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -333,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,27 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,24 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -710,7 +660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -718,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -727,10 +677,10 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -739,31 +689,31 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="M2">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="N2">
         <v>13</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -771,28 +721,28 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -804,7 +754,7 @@
         <v>118</v>
       </c>
       <c r="N3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -822,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -890,7 +840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -928,14 +878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,7 +935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -993,19 +943,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1014,16 +964,16 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="M2">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="N2">
         <v>17</v>
@@ -1035,10 +985,10 @@
         <v>6</v>
       </c>
       <c r="Q2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1046,28 +996,28 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I3">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1079,7 +1029,7 @@
         <v>160</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1097,14 +1047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1203,16 +1153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1262,27 +1210,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
+        <v>39</v>
+      </c>
+      <c r="G2">
         <v>37</v>
-      </c>
-      <c r="G2">
-        <v>35</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1291,16 +1239,16 @@
         <v>1</v>
       </c>
       <c r="J2">
+        <v>48</v>
+      </c>
+      <c r="K2">
         <v>46</v>
       </c>
-      <c r="K2">
-        <v>44</v>
-      </c>
       <c r="L2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N2">
         <v>18</v>
@@ -1315,12 +1263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1329,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1354,10 +1302,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1371,28 +1319,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1403,13 +1351,13 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1420,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1432,14 +1380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,51 +1398,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/Base/Teams/Bengals/2021 Team Data.xlsx
+++ b/Base/Teams/Bengals/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3</t>
-  </si>
-  <si>
-    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23</t>
-  </si>
-  <si>
-    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2</t>
-  </si>
-  <si>
-    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12</t>
+    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3</t>
+  </si>
+  <si>
+    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15</t>
+  </si>
+  <si>
+    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2</t>
+  </si>
+  <si>
+    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>21 10 22 27 16 20 23 28 18 21 24 35 24 11 12 25 15 24 24 25 48 24 27 16 24 23</t>
   </si>
   <si>
-    <t>11 27 18 23 30 19 24 44 22 28 26 18 14 21 17 22 25 32 12 17 10 25 18 18</t>
-  </si>
-  <si>
-    <t>59 47 37 43 42 43 61 36 39 48 37 54 49 53 46 56 40 46 41 38 42 25 58 51 54 39 60 58 59 47 45 38 55 37 44 41 47 58 41 45 53 50 46 46 38 46 36 41 50</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 12 0 0 14 0 0 0 0 0 0 0 1 0 0 8 0 11 13 14 0 16 21 0 0 0 0 16 0 -1 5 12 11 0 3 0 15 3 0 0 0 4 0 0</t>
-  </si>
-  <si>
-    <t>0 0 12 8 0 1 0</t>
+    <t>11 27 18 23 30 19 24 44 22 28 26 18 14 21 17 22 25 32 12 17 10 25 18 18 23</t>
+  </si>
+  <si>
+    <t>59 47 37 43 42 43 61 36 39 48 37 54 49 53 46 56 40 46 41 38 42 25 58 51 54 39 60 58 59 47 45 38 55 37 44 41 47 58 41 45 53 50 46 46 38 46 36 41 50 57 57 41 61 45 56 51</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 12 0 0 14 0 0 0 0 0 0 0 1 0 0 8 0 11 13 14 0 16 21 0 0 0 0 16 0 -1 5 12 11 0 3 0 15 3 0 0 0 4 0 0 0 0 0 0 0 12 18</t>
+  </si>
+  <si>
+    <t>0 0 12 8 0 1 0 12 0 0 5 0 5</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -677,19 +677,19 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>170</v>
       </c>
       <c r="N2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O2">
         <v>16</v>
@@ -721,37 +721,37 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="M3">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="N3">
         <v>27</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>343</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -952,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,10 +976,10 @@
         <v>171</v>
       </c>
       <c r="N2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2">
         <v>6</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J3">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="M3">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="N3">
         <v>20</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>389</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1233,16 +1233,16 @@
         <v>37</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2">
         <v>24</v>
@@ -1251,10 +1251,10 @@
         <v>17</v>
       </c>
       <c r="N2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1368,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Bengals/2021 Team Data.xlsx
+++ b/Base/Teams/Bengals/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3</t>
-  </si>
-  <si>
-    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15</t>
-  </si>
-  <si>
-    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2</t>
-  </si>
-  <si>
-    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5</t>
+    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3 8 -2 19 3 1 1 9 1 1 1 3 12 2 2 2 8 2 2 2</t>
+  </si>
+  <si>
+    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15 10 18 20 3 11 16 5 17 3 68 20 17 9 11 15 3 52 1 19 3 18 9 3 2 5 14 13 0 12 4 22 3 10 20 4 52</t>
+  </si>
+  <si>
+    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2 8 2 6 1 0 7 -2 3 -5 3 4 2 2 -7 1</t>
+  </si>
+  <si>
+    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5 11 17 5 15 6 4 9 -1 16 12 10 -1 18 28 11 11 4 7 12 17 25 18 14 4 6 7 14 5</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,13 +161,13 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 55 63 69 56 62 67 62 62 66 64 67 64 39 62 68 62 66 59 67 68 68 65 55 63 67</t>
-  </si>
-  <si>
-    <t>21 10 22 27 16 20 23 28 18 21 24 35 24 11 12 25 15 24 24 25 48 24 27 16 24 23</t>
-  </si>
-  <si>
-    <t>11 27 18 23 30 19 24 44 22 28 26 18 14 21 17 22 25 32 12 17 10 25 18 18 23</t>
+    <t>70 55 63 69 56 62 67 62 62 66 64 67 64 39 62 68 62 66 59 67 68 68 65 55 63 67 66 56 64 63</t>
+  </si>
+  <si>
+    <t>21 10 22 27 16 20 23 28 18 21 24 35 24 11 12 25 15 24 24 25 48 24 27 16 24 23 22 15 24 0</t>
+  </si>
+  <si>
+    <t>11 27 18 23 30 19 24 44 22 28 26 18 14 21 17 22 25 32 12 17 10 25 18 18 23 25 20 0</t>
   </si>
   <si>
     <t>59 47 37 43 42 43 61 36 39 48 37 54 49 53 46 56 40 46 41 38 42 25 58 51 54 39 60 58 59 47 45 38 55 37 44 41 47 58 41 45 53 50 46 46 38 46 36 41 50 57 57 41 61 45 56 51</t>
@@ -176,7 +176,7 @@
     <t>0 0 0 0 0 0 12 0 0 14 0 0 0 0 0 0 0 1 0 0 8 0 11 13 14 0 16 21 0 0 0 0 16 0 -1 5 12 11 0 3 0 15 3 0 0 0 4 0 0 0 0 0 0 0 12 18</t>
   </si>
   <si>
-    <t>0 0 12 8 0 1 0 12 0 0 5 0 5</t>
+    <t>0 0 12 8 0 1 0 12 0 0 5 0 5 6 10 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="M2">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="N2">
         <v>16</v>
       </c>
       <c r="O2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>460</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>133</v>
       </c>
       <c r="N3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,49 +943,49 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="M2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="N2">
         <v>20</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P2">
         <v>6</v>
       </c>
       <c r="Q2">
-        <v>431</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I3">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>178</v>
       </c>
       <c r="N3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,7 +1215,7 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -1227,10 +1227,10 @@
         <v>17</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="J2">
+        <v>51</v>
+      </c>
+      <c r="K2">
         <v>49</v>
-      </c>
-      <c r="K2">
-        <v>47</v>
       </c>
       <c r="L2">
         <v>24</v>
@@ -1251,7 +1251,7 @@
         <v>17</v>
       </c>
       <c r="N2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2">
         <v>16</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1371,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Bengals/2021 Team Data.xlsx
+++ b/Base/Teams/Bengals/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3 8 -2 19 3 1 1 9 1 1 1 3 12 2 2 2 8 2 2 2</t>
-  </si>
-  <si>
-    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15 10 18 20 3 11 16 5 17 3 68 20 17 9 11 15 3 52 1 19 3 18 9 3 2 5 14 13 0 12 4 22 3 10 20 4 52</t>
-  </si>
-  <si>
-    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2 8 2 6 1 0 7 -2 3 -5 3 4 2 2 -7 1</t>
-  </si>
-  <si>
-    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5 11 17 5 15 6 4 9 -1 16 12 10 -1 18 28 11 11 4 7 12 17 25 18 14 4 6 7 14 5</t>
+    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3 8 -2 19 3 1 1 9 1 1 1 3 12 2 2 2 8 2 2 2 13 3 6 6 3 1 4 3 3 1 3 4 5 4 1 0 0 0</t>
+  </si>
+  <si>
+    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15 10 18 20 3 11 16 5 17 3 68 20 17 9 11 15 3 52 1 19 3 18 9 3 2 5 14 13 0 12 4 22 3 10 20 4 52 11 4 3 10 72 8 8 9 17 18 6 7 6 4 10 5 69 22 6 4 39 10 5 2 5 9 2 35 30</t>
+  </si>
+  <si>
+    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2 8 2 6 1 0 7 -2 3 -5 3 4 2 2 -7 1 1 2 23 -1 6 2 1 8 10 6 8 1 14 3 17 1 19 8 0 5 8 11</t>
+  </si>
+  <si>
+    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5 11 17 5 15 6 4 9 -1 16 12 10 -1 18 28 11 11 4 7 12 17 25 18 14 4 6 7 14 5 8 6 1 29 7 17 24 3 3 53 7 3 2 4 27 7 8 5 11 6 5 6 4 8 1 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 55 63 69 56 62 67 62 62 66 64 67 64 39 62 68 62 66 59 67 68 68 65 55 63 67 66 56 64 63</t>
-  </si>
-  <si>
-    <t>21 10 22 27 16 20 23 28 18 21 24 35 24 11 12 25 15 24 24 25 48 24 27 16 24 23 22 15 24 0</t>
+    <t>70 55 63 69 56 62 67 62 62 66 64 67 64 39 62 68 62 66 59 67 68 68 65 55 63 67 66 56 64 63 64 64 67 45</t>
+  </si>
+  <si>
+    <t>21 10 22 27 16 20 23 28 18 21 24 35 24 11 12 25 15 24 24 25 48 24 27 16 24 23 22 15 24 0 25 26 30 12</t>
   </si>
   <si>
     <t>11 27 18 23 30 19 24 44 22 28 26 18 14 21 17 22 25 32 12 17 10 25 18 18 23 25 20 0</t>
   </si>
   <si>
-    <t>59 47 37 43 42 43 61 36 39 48 37 54 49 53 46 56 40 46 41 38 42 25 58 51 54 39 60 58 59 47 45 38 55 37 44 41 47 58 41 45 53 50 46 46 38 46 36 41 50 57 57 41 61 45 56 51</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 12 0 0 14 0 0 0 0 0 0 0 1 0 0 8 0 11 13 14 0 16 21 0 0 0 0 16 0 -1 5 12 11 0 3 0 15 3 0 0 0 4 0 0 0 0 0 0 0 12 18</t>
-  </si>
-  <si>
-    <t>0 0 12 8 0 1 0 12 0 0 5 0 5 6 10 0</t>
+    <t>59 47 37 43 42 43 61 36 39 48 37 54 49 53 46 56 40 46 41 38 42 25 58 51 54 39 60 58 59 47 45 38 55 37 44 41 47 58 41 45 53 50 46 46 38 46 36 41 50 57 57 41 61 45 56 51 40 51 27</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 12 0 0 14 0 0 0 0 0 0 0 1 0 0 8 0 11 13 14 0 16 21 0 0 0 0 16 0 -1 5 12 11 0 3 0 15 3 0 0 0 4 0 0 0 0 0 0 0 12 18 0 29 3</t>
+  </si>
+  <si>
+    <t>0 0 12 8 0 1 0 12 0 0 5 0 5 6 10 0 0 3 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,22 +665,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -689,28 +689,28 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="M2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="N2">
         <v>16</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q2">
-        <v>534</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>133</v>
       </c>
       <c r="N3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -964,28 +964,28 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="M2">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="N2">
         <v>20</v>
       </c>
       <c r="O2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2">
-        <v>492</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,10 +993,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1005,19 +1005,19 @@
         <v>38</v>
       </c>
       <c r="F3">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G3">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1239,16 +1239,16 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2">
         <v>21</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1371,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Bengals/2021 Team Data.xlsx
+++ b/Base/Teams/Bengals/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3 8 -2 19 3 1 1 9 1 1 1 3 12 2 2 2 8 2 2 2 13 3 6 6 3 1 4 3 3 1 3 4 5 4 1 0 0 0</t>
-  </si>
-  <si>
-    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15 10 18 20 3 11 16 5 17 3 68 20 17 9 11 15 3 52 1 19 3 18 9 3 2 5 14 13 0 12 4 22 3 10 20 4 52 11 4 3 10 72 8 8 9 17 18 6 7 6 4 10 5 69 22 6 4 39 10 5 2 5 9 2 35 30</t>
-  </si>
-  <si>
-    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2 8 2 6 1 0 7 -2 3 -5 3 4 2 2 -7 1 1 2 23 -1 6 2 1 8 10 6 8 1 14 3 17 1 19 8 0 5 8 11</t>
-  </si>
-  <si>
-    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5 11 17 5 15 6 4 9 -1 16 12 10 -1 18 28 11 11 4 7 12 17 25 18 14 4 6 7 14 5 8 6 1 29 7 17 24 3 3 53 7 3 2 4 27 7 8 5 11 6 5 6 4 8 1 4</t>
+    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3 8 -2 19 3 1 1 9 1 1 1 3 12 2 2 2 8 2 2 2 13 3 6 6 3 1 4 3 3 1 3 4 5 4 1 0 0 0 3 4 3 5 2 5 7 2 4 -1 9 1 10 5 4 2 2 2 3 0 -2 1</t>
+  </si>
+  <si>
+    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15 10 18 20 3 11 16 5 17 3 68 20 17 9 11 15 3 52 1 19 3 18 9 3 2 5 14 13 0 12 4 22 3 10 20 4 52 11 4 3 10 72 8 8 9 17 18 6 7 6 4 10 5 69 22 6 4 39 10 5 2 5 9 2 35 30 11 17 9 21 7 -1 28 5 5 29 5 10 5 9 7 9 5 7 3 19 11 10 6 7</t>
+  </si>
+  <si>
+    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2 8 2 6 1 0 7 -2 3 -5 3 4 2 2 -7 1 1 2 23 -1 6 2 1 8 10 6 8 1 14 3 17 1 19 8 0 5 8 11 5 3 1 2 2 14 35 2 20 -1 0 8 7 5</t>
+  </si>
+  <si>
+    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5 11 17 5 15 6 4 9 -1 16 12 10 -1 18 28 11 11 4 7 12 17 25 18 14 4 6 7 14 5 8 6 1 29 7 17 24 3 3 53 7 3 2 4 27 7 8 5 11 6 5 6 4 8 1 4 17 6 8 9 13 7 6 7 19 4 11 14 12 6 9 16 7 5 16 3 3 13 5 13 7 15 23 10</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 55 63 69 56 62 67 62 62 66 64 67 64 39 62 68 62 66 59 67 68 68 65 55 63 67 66 56 64 63 64 64 67 45</t>
-  </si>
-  <si>
-    <t>21 10 22 27 16 20 23 28 18 21 24 35 24 11 12 25 15 24 24 25 48 24 27 16 24 23 22 15 24 0 25 26 30 12</t>
-  </si>
-  <si>
-    <t>11 27 18 23 30 19 24 44 22 28 26 18 14 21 17 22 25 32 12 17 10 25 18 18 23 25 20 0</t>
-  </si>
-  <si>
-    <t>59 47 37 43 42 43 61 36 39 48 37 54 49 53 46 56 40 46 41 38 42 25 58 51 54 39 60 58 59 47 45 38 55 37 44 41 47 58 41 45 53 50 46 46 38 46 36 41 50 57 57 41 61 45 56 51 40 51 27</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 12 0 0 14 0 0 0 0 0 0 0 1 0 0 8 0 11 13 14 0 16 21 0 0 0 0 16 0 -1 5 12 11 0 3 0 15 3 0 0 0 4 0 0 0 0 0 0 0 12 18 0 29 3</t>
-  </si>
-  <si>
-    <t>0 0 12 8 0 1 0 12 0 0 5 0 5 6 10 0 0 3 0</t>
+    <t>70 55 63 69 56 62 67 62 62 66 64 67 64 39 62 68 62 66 59 67 68 68 65 55 63 67 66 56 64 63 64 64 67 45 63 61 61 64</t>
+  </si>
+  <si>
+    <t>21 10 22 27 16 20 23 28 18 21 24 35 24 11 12 25 15 24 24 25 48 24 27 16 24 23 22 15 24 0 25 26 30 12 0 35 16 22</t>
+  </si>
+  <si>
+    <t>11 27 18 23 30 19 24 44 22 28 26 18 14 21 17 22 25 32 12 17 10 25 18 18 23 25 20 0 14 27 23 25</t>
+  </si>
+  <si>
+    <t>59 47 37 43 42 43 61 36 39 48 37 54 49 53 46 56 40 46 41 38 42 25 58 51 54 39 60 58 59 47 45 38 55 37 44 41 47 58 41 45 53 50 46 46 38 46 36 41 50 57 57 41 61 45 56 51 40 51 27 33</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 12 0 0 14 0 0 0 0 0 0 0 1 0 0 8 0 11 13 14 0 16 21 0 0 0 0 16 0 -1 5 12 11 0 3 0 15 3 0 0 0 4 0 0 0 0 0 0 0 12 18 0 29 3 0</t>
+  </si>
+  <si>
+    <t>0 0 12 8 0 1 0 12 0 0 5 0 5 6 10 0 0 3 0 14 12</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -689,28 +689,28 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="M2">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="N2">
         <v>16</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q2">
-        <v>604</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J3">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>133</v>
       </c>
       <c r="N3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -955,13 +955,13 @@
         <v>52</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
         <v>29</v>
@@ -970,22 +970,22 @@
         <v>25</v>
       </c>
       <c r="L2">
-        <v>323</v>
+        <v>376</v>
       </c>
       <c r="M2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="N2">
         <v>20</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q2">
-        <v>553</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G3">
+        <v>47</v>
+      </c>
+      <c r="H3">
         <v>45</v>
       </c>
-      <c r="H3">
-        <v>42</v>
-      </c>
       <c r="I3">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J3">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>178</v>
       </c>
       <c r="N3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
         <v>48</v>
-      </c>
-      <c r="G2">
-        <v>46</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1239,16 +1239,16 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2">
         <v>21</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1423,7 +1423,7 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Bengals/2021 Team Data.xlsx
+++ b/Base/Teams/Bengals/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3 8 -2 19 3 1 1 9 1 1 1 3 12 2 2 2 8 2 2 2 13 3 6 6 3 1 4 3 3 1 3 4 5 4 1 0 0 0 3 4 3 5 2 5 7 2 4 -1 9 1 10 5 4 2 2 2 3 0 -2 1</t>
-  </si>
-  <si>
-    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15 10 18 20 3 11 16 5 17 3 68 20 17 9 11 15 3 52 1 19 3 18 9 3 2 5 14 13 0 12 4 22 3 10 20 4 52 11 4 3 10 72 8 8 9 17 18 6 7 6 4 10 5 69 22 6 4 39 10 5 2 5 9 2 35 30 11 17 9 21 7 -1 28 5 5 29 5 10 5 9 7 9 5 7 3 19 11 10 6 7</t>
-  </si>
-  <si>
-    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2 8 2 6 1 0 7 -2 3 -5 3 4 2 2 -7 1 1 2 23 -1 6 2 1 8 10 6 8 1 14 3 17 1 19 8 0 5 8 11 5 3 1 2 2 14 35 2 20 -1 0 8 7 5</t>
-  </si>
-  <si>
-    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5 11 17 5 15 6 4 9 -1 16 12 10 -1 18 28 11 11 4 7 12 17 25 18 14 4 6 7 14 5 8 6 1 29 7 17 24 3 3 53 7 3 2 4 27 7 8 5 11 6 5 6 4 8 1 4 17 6 8 9 13 7 6 7 19 4 11 14 12 6 9 16 7 5 16 3 3 13 5 13 7 15 23 10</t>
+    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3 8 -2 19 3 1 1 9 1 1 1 3 12 2 2 2 8 2 2 2 13 3 6 6 3 1 4 3 3 1 3 4 5 4 1 0 0 0 3 4 3 5 2 5 7 2 4 -1 9 1 10 5 4 2 2 2 3 0 -2 1 1 1 2 5 -3 0 1 2 6 10 7 16 1 13 -1 4 2 -2</t>
+  </si>
+  <si>
+    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15 10 18 20 3 11 16 5 17 3 68 20 17 9 11 15 3 52 1 19 3 18 9 3 2 5 14 13 0 12 4 22 3 10 20 4 52 11 4 3 10 72 8 8 9 17 18 6 7 6 4 10 5 69 22 6 4 39 10 5 2 5 9 2 35 30 11 17 9 21 7 -1 28 5 5 29 5 10 5 9 7 9 5 7 3 19 11 10 6 7 21 8 4 57 7 19 7 7 6 15 4 22 1 5 10 11 32 7 12 11 4 7 21 8 13 7 3 19</t>
+  </si>
+  <si>
+    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2 8 2 6 1 0 7 -2 3 -5 3 4 2 2 -7 1 1 2 23 -1 6 2 1 8 10 6 8 1 14 3 17 1 19 8 0 5 8 11 5 3 1 2 2 14 35 2 20 -1 0 8 7 5 2 -1 8 3 -1 2 4 3 4 6 3 8 9 3 9 45 5 5 1 -1 9 10 0 3 0</t>
+  </si>
+  <si>
+    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5 11 17 5 15 6 4 9 -1 16 12 10 -1 18 28 11 11 4 7 12 17 25 18 14 4 6 7 14 5 8 6 1 29 7 17 24 3 3 53 7 3 2 4 27 7 8 5 11 6 5 6 4 8 1 4 17 6 8 9 13 7 6 7 19 4 11 14 12 6 9 16 7 5 16 3 3 13 5 13 7 15 23 10 11 13 3 41 3 13 8 40 5 33 20 6 3 16 5</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 55 63 69 56 62 67 62 62 66 64 67 64 39 62 68 62 66 59 67 68 68 65 55 63 67 66 56 64 63 64 64 67 45 63 61 61 64</t>
-  </si>
-  <si>
-    <t>21 10 22 27 16 20 23 28 18 21 24 35 24 11 12 25 15 24 24 25 48 24 27 16 24 23 22 15 24 0 25 26 30 12 0 35 16 22</t>
-  </si>
-  <si>
-    <t>11 27 18 23 30 19 24 44 22 28 26 18 14 21 17 22 25 32 12 17 10 25 18 18 23 25 20 0 14 27 23 25</t>
-  </si>
-  <si>
-    <t>59 47 37 43 42 43 61 36 39 48 37 54 49 53 46 56 40 46 41 38 42 25 58 51 54 39 60 58 59 47 45 38 55 37 44 41 47 58 41 45 53 50 46 46 38 46 36 41 50 57 57 41 61 45 56 51 40 51 27 33</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 12 0 0 14 0 0 0 0 0 0 0 1 0 0 8 0 11 13 14 0 16 21 0 0 0 0 16 0 -1 5 12 11 0 3 0 15 3 0 0 0 4 0 0 0 0 0 0 0 12 18 0 29 3 0</t>
-  </si>
-  <si>
-    <t>0 0 12 8 0 1 0 12 0 0 5 0 5 6 10 0 0 3 0 14 12</t>
+    <t>70 55 63 69 56 62 67 62 62 66 64 67 64 39 62 68 62 66 59 67 68 68 65 55 63 67 66 56 64 63 64 64 67 45 63 61 61 64 65</t>
+  </si>
+  <si>
+    <t>21 10 22 27 16 20 23 28 18 21 24 35 24 11 12 25 15 24 24 25 48 24 27 16 24 23 22 15 24 0 25 26 30 12 0 35 16 22 26</t>
+  </si>
+  <si>
+    <t>11 27 18 23 30 19 24 44 22 28 26 18 14 21 17 22 25 32 12 17 10 25 18 18 23 25 20 0 14 27 23 25 31 32 19</t>
+  </si>
+  <si>
+    <t>59 47 37 43 42 43 61 36 39 48 37 54 49 53 46 56 40 46 41 38 42 25 58 51 54 39 60 58 59 47 45 38 55 37 44 41 47 58 41 45 53 50 46 46 38 46 36 41 50 57 57 41 61 45 56 51 40 51 27 33 48 39 43 31 42</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 12 0 0 14 0 0 0 0 0 0 0 1 0 0 8 0 11 13 14 0 16 21 0 0 0 0 16 0 -1 5 12 11 0 3 0 15 3 0 0 0 4 0 0 0 0 0 0 0 12 18 0 29 3 0 0 5 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 12 8 0 1 0 12 0 0 5 0 5 6 10 0 0 3 0 14 12 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,22 +665,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>262</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O2">
         <v>21</v>
@@ -721,37 +721,37 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="M3">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="N3">
         <v>37</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>397</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -952,19 +952,19 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,10 +976,10 @@
         <v>254</v>
       </c>
       <c r="N2">
+        <v>21</v>
+      </c>
+      <c r="O2">
         <v>20</v>
-      </c>
-      <c r="O2">
-        <v>19</v>
       </c>
       <c r="P2">
         <v>8</v>
@@ -996,37 +996,37 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F3">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="M3">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="N3">
         <v>24</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>465</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1239,22 +1239,22 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Bengals/2021 Team Data.xlsx
+++ b/Base/Teams/Bengals/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3 8 -2 19 3 1 1 9 1 1 1 3 12 2 2 2 8 2 2 2 13 3 6 6 3 1 4 3 3 1 3 4 5 4 1 0 0 0 3 4 3 5 2 5 7 2 4 -1 9 1 10 5 4 2 2 2 3 0 -2 1 1 1 2 5 -3 0 1 2 6 10 7 16 1 13 -1 4 2 -2</t>
-  </si>
-  <si>
-    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15 10 18 20 3 11 16 5 17 3 68 20 17 9 11 15 3 52 1 19 3 18 9 3 2 5 14 13 0 12 4 22 3 10 20 4 52 11 4 3 10 72 8 8 9 17 18 6 7 6 4 10 5 69 22 6 4 39 10 5 2 5 9 2 35 30 11 17 9 21 7 -1 28 5 5 29 5 10 5 9 7 9 5 7 3 19 11 10 6 7 21 8 4 57 7 19 7 7 6 15 4 22 1 5 10 11 32 7 12 11 4 7 21 8 13 7 3 19</t>
-  </si>
-  <si>
-    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2 8 2 6 1 0 7 -2 3 -5 3 4 2 2 -7 1 1 2 23 -1 6 2 1 8 10 6 8 1 14 3 17 1 19 8 0 5 8 11 5 3 1 2 2 14 35 2 20 -1 0 8 7 5 2 -1 8 3 -1 2 4 3 4 6 3 8 9 3 9 45 5 5 1 -1 9 10 0 3 0</t>
-  </si>
-  <si>
-    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5 11 17 5 15 6 4 9 -1 16 12 10 -1 18 28 11 11 4 7 12 17 25 18 14 4 6 7 14 5 8 6 1 29 7 17 24 3 3 53 7 3 2 4 27 7 8 5 11 6 5 6 4 8 1 4 17 6 8 9 13 7 6 7 19 4 11 14 12 6 9 16 7 5 16 3 3 13 5 13 7 15 23 10 11 13 3 41 3 13 8 40 5 33 20 6 3 16 5</t>
+    <t>5 -2 3 4 1 2 -1 13 1 3 6 4 7 2 2 5 10 19 1 5 5 9 12 -1 7 1 2 8 2 4 0 3 0 5 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 0 7 10 -1 9 4 0 6 5 7 11 1 -1 4 9 8 2 3 -2 10 4 4 1 1 0 9 8 5 2 3 0 2 4 6 6 14 4 3 5 1 7 6 3 4 6 2 4 5 18 4 2 1 -2 6 4 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 0 2 2 7 1 -5 6 8 6 2 6 17 2 5 3 4 0 10 3 3 8 -3 5 10 -2 8 3 3 3 2 4 6 4 0 2 7 1 6 1 2 4 6 2 0 17 1 0 4 3 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3 8 -2 19 3 1 1 9 1 1 1 3 12 2 2 2 8 2 2 2 13 3 6 6 3 1 4 3 3 1 3 4 5 4 1 0 0 0 3 4 3 5 2 5 7 2 4 -1 9 1 10 5 4 2 2 2 3 0 -2 1 1 1 2 5 -3 0 1 2 6 10 7 16 1 13 -1 4 2 -2 3 3 8 1 23 12 3 1 -1 -2 2 5 2 0 0 5 3 4 7 1 11 4 2 7 13 2 -3</t>
+  </si>
+  <si>
+    <t>5 3 7 12 17 13 2 14 2 9 50 4 28 5 14 15 18 5 6 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 12 15 7 17 7 19 34 14 8 14 5 9 4 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 2 7 9 6 7 2 10 4 7 5 70 28 14 5 8 3 10 2 7 19 9 8 8 5 21 14 24 5 5 1 9 4 3 7 9 34 8 7 23 11 53 14 2 7 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 5 12 21 3 9 7 32 16 29 5 7 0 5 9 20 12 6 9 11 12 16 14 25 14 10 14 20 0 10 11 16 9 12 -4 11 12 19 3 5 27 4 13 5 12 22 29 32 26 23 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15 10 18 20 3 11 16 5 17 3 68 20 17 9 11 15 3 52 1 19 3 18 9 3 2 5 14 13 0 12 4 22 3 10 20 4 52 11 4 3 10 72 8 8 9 17 18 6 7 6 4 10 5 69 22 6 4 39 10 5 2 5 9 2 35 30 11 17 9 21 7 -1 28 5 5 29 5 10 5 9 7 9 5 7 3 19 11 10 6 7 21 8 4 57 7 19 7 7 6 15 4 22 1 5 10 11 32 7 12 11 4 7 21 8 13 7 3 19 2 2 7 3 5 9 6 8 18 41 44 4 22 18 2 17 2 2 16 5 0 9 8</t>
+  </si>
+  <si>
+    <t>1 3 1 2 17 2 7 -3 4 1 13 0 8 -1 6 5 2 1 0 -1 0 0 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 14 11 3 0 2 1 3 8 1 5 7 17 -1 5 4 1 1 57 0 -1 -4 -1 3 1 0 3 8 1 6 2 1 1 -5 1 0 9 5 -2 1 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 0 -1 6 7 3 9 5 0 2 5 4 1 15 1 5 6 1 3 -4 7 2 -1 0 1 4 4 9 12 2 27 1 7 2 3 -3 2 5 3 3 1 8 6 2 2 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2 8 2 6 1 0 7 -2 3 -5 3 4 2 2 -7 1 1 2 23 -1 6 2 1 8 10 6 8 1 14 3 17 1 19 8 0 5 8 11 5 3 1 2 2 14 35 2 20 -1 0 8 7 5 2 -1 8 3 -1 2 4 3 4 6 3 8 9 3 9 45 5 5 1 -1 9 10 0 3 0 8 1 1 8 11 7 7 1 3 7 14 4 6 4 9 4 7 4 1 9 14 4 4 1</t>
+  </si>
+  <si>
+    <t>9 6 12 11 9 -1 2 9 4 17 11 25 5 5 6 20 0 9 10 10 5 6 9 8 34 10 7 27 0 6 14 7 3 5 12 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 15 17 -4 34 14 0 12 13 24 -1 3 15 24 5 22 5 7 0 8 8 2 2 59 20 20 15 0 7 10 4 6 5 3 5 -2 5 4 33 2 9 5 3 15 7 4 3 7 10 3 7 8 10 14 15 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 -1 10 -1 41 5 10 47 6 7 44 23 7 4 7 12 7 12 9 7 6 -3 1 18 33 2 7 5 4 2 10 21 6 1 4 3 22 20 16 10 13 8 9 5 17 19 8 25 21 3 9 12 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5 11 17 5 15 6 4 9 -1 16 12 10 -1 18 28 11 11 4 7 12 17 25 18 14 4 6 7 14 5 8 6 1 29 7 17 24 3 3 53 7 3 2 4 27 7 8 5 11 6 5 6 4 8 1 4 17 6 8 9 13 7 6 7 19 4 11 14 12 6 9 16 7 5 16 3 3 13 5 13 7 15 23 10 11 13 3 41 3 13 8 40 5 33 20 6 3 16 5 14 8 10 6 10 44 11 7 5 19 5 12 3 33 14 9 10 0 6 4 7 5 5 8 18 2</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 55 63 69 56 62 67 62 62 66 64 67 64 39 62 68 62 66 59 67 68 68 65 55 63 67 66 56 64 63 64 64 67 45 63 61 61 64 65</t>
-  </si>
-  <si>
-    <t>21 10 22 27 16 20 23 28 18 21 24 35 24 11 12 25 15 24 24 25 48 24 27 16 24 23 22 15 24 0 25 26 30 12 0 35 16 22 26</t>
-  </si>
-  <si>
-    <t>11 27 18 23 30 19 24 44 22 28 26 18 14 21 17 22 25 32 12 17 10 25 18 18 23 25 20 0 14 27 23 25 31 32 19</t>
-  </si>
-  <si>
-    <t>59 47 37 43 42 43 61 36 39 48 37 54 49 53 46 56 40 46 41 38 42 25 58 51 54 39 60 58 59 47 45 38 55 37 44 41 47 58 41 45 53 50 46 46 38 46 36 41 50 57 57 41 61 45 56 51 40 51 27 33 48 39 43 31 42</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 12 0 0 14 0 0 0 0 0 0 0 1 0 0 8 0 11 13 14 0 16 21 0 0 0 0 16 0 -1 5 12 11 0 3 0 15 3 0 0 0 4 0 0 0 0 0 0 0 12 18 0 29 3 0 0 5 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 12 8 0 1 0 12 0 0 5 0 5 6 10 0 0 3 0 14 12 0 0 0 0</t>
+    <t>70 55 63 69 56 62 67 62 62 66 64 67 64 39 62 68 62 66 59 67 68 68 65 55 63 67 66 56 64 63 64 64 67 45 63 61 61 64 65 62 66</t>
+  </si>
+  <si>
+    <t>21 10 22 27 16 20 23 28 18 21 24 35 24 11 12 25 15 24 24 25 48 24 27 16 24 23 22 15 24 0 25 26 30 12 0 35 16 22 26 16 22</t>
+  </si>
+  <si>
+    <t>11 27 18 23 30 19 24 44 22 28 26 18 14 21 17 22 25 32 12 17 10 25 18 18 23 25 20 0 14 27 23 25 31 32 19 26</t>
+  </si>
+  <si>
+    <t>59 47 37 43 42 43 61 36 39 48 37 54 49 53 46 56 40 46 41 38 42 25 58 51 54 39 60 58 59 47 45 38 55 37 44 41 47 58 41 45 53 50 46 46 38 46 36 41 50 57 57 41 61 45 56 51 40 51 27 33 48 39 43 31 42 54 31 36</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 12 0 0 14 0 0 0 0 0 0 0 1 0 0 8 0 11 13 14 0 16 21 0 0 0 0 16 0 -1 5 12 11 0 3 0 15 3 0 0 0 4 0 0 0 0 0 0 0 12 18 0 29 3 0 0 5 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 12 8 0 1 0 12 0 0 5 0 5 6 10 0 0 3 0 14 12 0 0 0 0 11 0 11 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>262</v>
       </c>
       <c r="N2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2">
         <v>21</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F3">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J3">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="M3">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="N3">
         <v>37</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>463</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -964,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>254</v>
       </c>
       <c r="N2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O2">
         <v>20</v>
@@ -996,37 +996,37 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>45</v>
       </c>
       <c r="F3">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G3">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>46</v>
       </c>
       <c r="I3">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J3">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="M3">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="N3">
         <v>24</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>517</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -1215,34 +1215,34 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L2">
         <v>27</v>
@@ -1251,10 +1251,10 @@
         <v>20</v>
       </c>
       <c r="N2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
